--- a/src/main/resources/ПриемкаМолока.xlsx
+++ b/src/main/resources/ПриемкаМолока.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaPRJ\MilkIntake\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6071BC6-DF0E-4DA8-8AA2-12EA1B01EA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="8010"/>
+    <workbookView xWindow="-30" yWindow="30" windowWidth="11220" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
-  <si>
-    <t>Пользователи:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Логин</t>
   </si>
@@ -30,24 +33,9 @@
     <t>Роль: Перечисление</t>
   </si>
   <si>
-    <t>Автотранспорт</t>
-  </si>
-  <si>
     <t>НомерАвто</t>
   </si>
   <si>
-    <t>Емкости: Массив</t>
-  </si>
-  <si>
-    <t>ВесЕмкости</t>
-  </si>
-  <si>
-    <t>НомерЕмкости</t>
-  </si>
-  <si>
-    <t>Контрагент</t>
-  </si>
-  <si>
     <t>Наменование</t>
   </si>
   <si>
@@ -57,18 +45,6 @@
     <t>ИНН</t>
   </si>
   <si>
-    <t>Фермы</t>
-  </si>
-  <si>
-    <t>Ссылка на контрагента</t>
-  </si>
-  <si>
-    <t>Расстояние</t>
-  </si>
-  <si>
-    <t>Рейсы</t>
-  </si>
-  <si>
     <t>ДатаВремяПоступления</t>
   </si>
   <si>
@@ -78,21 +54,12 @@
     <t>ФИОВодителя</t>
   </si>
   <si>
-    <t>ДатаВремяОкончанияРазгрузки</t>
-  </si>
-  <si>
-    <t>Накладные: Массив</t>
-  </si>
-  <si>
     <t>СсылкаНаРейс</t>
   </si>
   <si>
     <t>СсылкаНаКонтрагента</t>
   </si>
   <si>
-    <t>СсылкаНаФерму</t>
-  </si>
-  <si>
     <t>ДатаНакладной</t>
   </si>
   <si>
@@ -127,12 +94,102 @@
   </si>
   <si>
     <t>СодержаниеБелка</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>passw</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Пользователи:users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВесЕмкости </t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>unn</t>
+  </si>
+  <si>
+    <t>Автотранспорт: cars</t>
+  </si>
+  <si>
+    <t>date_ttn</t>
+  </si>
+  <si>
+    <t>number_ttn</t>
+  </si>
+  <si>
+    <t>date_incoming</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>Рейсы: routes</t>
+  </si>
+  <si>
+    <t>id_routes</t>
+  </si>
+  <si>
+    <t>id_contragents</t>
+  </si>
+  <si>
+    <t>weight_supplier</t>
+  </si>
+  <si>
+    <t>weight_receiving</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>weight_cistern</t>
+  </si>
+  <si>
+    <t>cars_id</t>
+  </si>
+  <si>
+    <t>Поставщик: supplier</t>
+  </si>
+  <si>
+    <t>Накладные: ttn</t>
+  </si>
+  <si>
+    <t>adres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,6 +231,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -222,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +315,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,6 +367,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -465,207 +559,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="D34" t="s">
         <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -677,7 +839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
